--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>885722.9556994084</v>
+        <v>883516.8622929697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604729</v>
+        <v>7094780.682604728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>35.29923335966896</v>
       </c>
       <c r="G2" t="n">
-        <v>330.8716903093853</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208643</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.877126480873279</v>
+        <v>65.95263903154859</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801551</v>
+        <v>57.88099638015522</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0353604252219</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -795,10 +795,10 @@
         <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.1406595124617</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.728030665640316</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>212.9494922293778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.14483238681411</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.7986473421965</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.10050473850163</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.1058125994218</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>110.2883253154783</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>81.56332942408274</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>137.6226750441173</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>252.0710257365524</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>129.1095262520231</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292571</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>165.6555085698112</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>249.4125807829107</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>218.1043346164859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>100.0025634447708</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>60.30476178829932</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>38.81758817917208</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>57.22579106484435</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.19569619650053</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>126.5660981224326</v>
       </c>
       <c r="V31" t="n">
-        <v>24.37260902265868</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,13 +3241,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>181.1375494785991</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796249</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3430,7 +3430,7 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
         <v>109.9256317368855</v>
@@ -3442,7 +3442,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.8570041237923</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400154</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3478,7 +3478,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>87.96925177590992</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>167.2449445183776</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3557,7 +3557,7 @@
         <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728569</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,7 +3566,7 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924239</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
         <v>350.7425223700078</v>
@@ -3661,25 +3661,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>48.27992741139248</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>58.61957059314675</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379228</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3791,7 +3791,7 @@
         <v>73.69234550213002</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3800,7 +3800,7 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313681</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924232</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>81.11137677745361</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379228</v>
+        <v>28.18229106046901</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924239</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y44" t="n">
         <v>350.7425223700078</v>
@@ -4135,10 +4135,10 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
@@ -4147,10 +4147,10 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>79.22433082924312</v>
       </c>
       <c r="I46" t="n">
         <v>60.85700412379228</v>
@@ -4201,7 +4201,7 @@
         <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.1549253744504</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1296.51399724381</v>
+        <v>1586.615329096258</v>
       </c>
       <c r="C2" t="n">
-        <v>1296.51399724381</v>
+        <v>1217.652812155846</v>
       </c>
       <c r="D2" t="n">
-        <v>938.2482986370596</v>
+        <v>1217.652812155846</v>
       </c>
       <c r="E2" t="n">
-        <v>552.4600460388153</v>
+        <v>831.8645595576018</v>
       </c>
       <c r="F2" t="n">
-        <v>545.5145452896119</v>
+        <v>796.2087682852089</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942732</v>
+        <v>377.9965460511255</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942732</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501632</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244782</v>
+        <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293499</v>
+        <v>406.6417666293492</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024633</v>
+        <v>785.541043602462</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.74604078277</v>
+        <v>1223.746040782768</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400861</v>
+        <v>1654.409655400858</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671744</v>
+        <v>2015.885456671741</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110677</v>
+        <v>2286.722307110673</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="S2" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="T2" t="n">
-        <v>2412.887742750816</v>
+        <v>2193.165642858862</v>
       </c>
       <c r="U2" t="n">
-        <v>2412.887742750816</v>
+        <v>1939.383984366372</v>
       </c>
       <c r="V2" t="n">
-        <v>2412.887742750816</v>
+        <v>1939.383984366372</v>
       </c>
       <c r="W2" t="n">
-        <v>2060.119087480702</v>
+        <v>1586.615329096258</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.653329219622</v>
+        <v>1586.615329096258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.51399724381</v>
+        <v>1586.615329096258</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>928.1231689300255</v>
+        <v>744.0360340805595</v>
       </c>
       <c r="C3" t="n">
-        <v>753.6701396488985</v>
+        <v>569.5830047994325</v>
       </c>
       <c r="D3" t="n">
-        <v>604.7357299876472</v>
+        <v>420.6485951381813</v>
       </c>
       <c r="E3" t="n">
-        <v>445.4982749821917</v>
+        <v>261.4111401327258</v>
       </c>
       <c r="F3" t="n">
-        <v>298.9637170090767</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="G3" t="n">
-        <v>160.9206906769305</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19424624983782</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501632</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719584</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="K3" t="n">
-        <v>345.419265350352</v>
+        <v>282.4696009334096</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265953</v>
+        <v>658.8007278096525</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.890288538966</v>
+        <v>1149.940624122023</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987185</v>
+        <v>1669.786545444867</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.07411260221</v>
+        <v>2078.928325059891</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642319</v>
+        <v>2390.2976061</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750816</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841568</v>
+        <v>2354.422089841564</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634273</v>
+        <v>2193.780311634269</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972575</v>
+        <v>1994.36602997257</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648782</v>
+        <v>1766.187661648778</v>
       </c>
       <c r="V3" t="n">
-        <v>1766.187661648782</v>
+        <v>1531.035553417035</v>
       </c>
       <c r="W3" t="n">
-        <v>1511.95030492058</v>
+        <v>1327.863170071114</v>
       </c>
       <c r="X3" t="n">
-        <v>1304.098804715047</v>
+        <v>1120.011669865581</v>
       </c>
       <c r="Y3" t="n">
-        <v>1096.338505950094</v>
+        <v>912.2513711006275</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1477023529267</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1477023529267</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="D4" t="n">
-        <v>195.1477023529267</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="E4" t="n">
-        <v>195.1477023529267</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501632</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501632</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501632</v>
+        <v>187.9376705916223</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501632</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501632</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461029</v>
+        <v>91.87143294461004</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384347</v>
+        <v>203.2083598384342</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534291</v>
+        <v>330.9866617534284</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692858</v>
+        <v>461.1612976692847</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984531</v>
+        <v>565.3823477984519</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978485</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978485</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978485</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978485</v>
+        <v>624.2447881264933</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978485</v>
+        <v>624.2447881264933</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978485</v>
+        <v>624.2447881264933</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978485</v>
+        <v>624.2447881264933</v>
       </c>
       <c r="W4" t="n">
-        <v>415.9402814964568</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="X4" t="n">
-        <v>415.9402814964568</v>
+        <v>334.8276180895327</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.1477023529267</v>
+        <v>334.8276180895327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>69.24079231209588</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>69.24079231209588</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1194880117298</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>962.1194880117298</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>962.1194880117298</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>576.3312354134855</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>165.3453306238779</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.9867076916975</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>181.9867076916975</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>181.9867076916975</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>181.9867076916975</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>181.9867076916975</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>181.9867076916975</v>
+        <v>361.80799380017</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.9867076916975</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="11">
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>985.0066235654897</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>3484.372139114998</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607302</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607302</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862228</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689054</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689054</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.209926975365</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1165.525438769478</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>876.1082687325173</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="X13" t="n">
-        <v>648.1187178345</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.3261386909699</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,43 +5261,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.0900014994926</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1538185715858</v>
+        <v>803.8133219477184</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353826</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353826</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,13 +5437,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1789.014669569541</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1567.248054139067</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1278.14518726471</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1278.14518726471</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="W16" t="n">
-        <v>988.7280172277497</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="X16" t="n">
-        <v>760.7384663297323</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7384663297323</v>
+        <v>972.7495048756253</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5519,16 +5519,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.5038042865474</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586404</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.036057401182</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.351569195295</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.934399158335</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>963.9448482603173</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.1522691167871</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>348.082974081076</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3805104860113</v>
+        <v>590.4396319794992</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3805104860113</v>
+        <v>421.503449051592</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736755</v>
+        <v>421.503449051592</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>421.503449051592</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>421.503449051592</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>253.800612426311</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1917.133781075237</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1695.367165644763</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1406.264298770406</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V22" t="n">
-        <v>1151.579810564519</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W22" t="n">
-        <v>862.1626405275588</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="X22" t="n">
-        <v>634.1730896295414</v>
+        <v>992.880675953269</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.3805104860113</v>
+        <v>772.0880968097389</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,19 +5990,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>470.2141403171232</v>
+        <v>333.9403347179517</v>
       </c>
       <c r="C25" t="n">
-        <v>301.2779573892162</v>
+        <v>165.0041517900447</v>
       </c>
       <c r="D25" t="n">
-        <v>301.2779573892162</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>153.3648638068231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>153.3648638068231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>153.3648638068231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>153.3648638068231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1390.061905225871</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.64473518891</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X25" t="n">
-        <v>872.6551842908931</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y25" t="n">
-        <v>651.862605147363</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6242,7 +6242,7 @@
         <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>300.0484256555948</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>131.1122427276879</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6418,16 +6418,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858345</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,22 +6467,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1172.647446689875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>411.1769646560686</v>
+        <v>432.2000540015825</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1769646560686</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560686</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.024729564816</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W31" t="n">
-        <v>1041.607559527856</v>
+        <v>1062.63064887337</v>
       </c>
       <c r="X31" t="n">
-        <v>813.6180086298385</v>
+        <v>834.6410979753523</v>
       </c>
       <c r="Y31" t="n">
-        <v>592.8254294863083</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,16 +6701,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
         <v>4010.914672075805</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6877,22 +6877,22 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
         <v>725.9916293201816</v>
@@ -6920,13 +6920,13 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529684</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H35" t="n">
         <v>90.72827659571334</v>
@@ -6938,25 +6938,25 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022407</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.753914694331</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.532731753114</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O35" t="n">
-        <v>3339.497382082568</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P35" t="n">
-        <v>3734.271748439747</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983638</v>
@@ -6968,7 +6968,7 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V35" t="n">
         <v>3471.820727203185</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>746.6500690399595</v>
+        <v>858.7092067778619</v>
       </c>
       <c r="C37" t="n">
-        <v>613.5678419565432</v>
+        <v>725.6269796944456</v>
       </c>
       <c r="D37" t="n">
-        <v>499.3051583886983</v>
+        <v>611.3642961266006</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886983</v>
+        <v>499.3051583886982</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352786</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G37" t="n">
         <v>256.4202859544882</v>
@@ -7099,7 +7099,7 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7111,7 +7111,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
@@ -7126,19 +7126,19 @@
         <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1741.912542932141</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="V37" t="n">
-        <v>1523.082010570745</v>
+        <v>1611.939840647421</v>
       </c>
       <c r="W37" t="n">
-        <v>1269.518796378275</v>
+        <v>1358.376626454951</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.383201324748</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.4445780257086</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
     <row r="38">
@@ -7178,19 +7178,19 @@
         <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576954</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M38" t="n">
-        <v>1591.849956248878</v>
+        <v>2450.352956811728</v>
       </c>
       <c r="N38" t="n">
-        <v>2138.628773307661</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O38" t="n">
-        <v>3018.593423637115</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P38" t="n">
-        <v>3731.948511084061</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426836</v>
@@ -7205,13 +7205,13 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360971</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867706</v>
+        <v>774.3945831402968</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033544</v>
+        <v>725.6269796944458</v>
       </c>
       <c r="D40" t="n">
-        <v>449.1767610033544</v>
+        <v>611.3642961266008</v>
       </c>
       <c r="E40" t="n">
-        <v>337.117623265452</v>
+        <v>499.3051583886984</v>
       </c>
       <c r="F40" t="n">
-        <v>337.117623265452</v>
+        <v>388.2691667352788</v>
       </c>
       <c r="G40" t="n">
-        <v>205.2687424846617</v>
+        <v>256.4202859544885</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168367</v>
@@ -7333,10 +7333,10 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218551</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7348,7 +7348,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
@@ -7369,13 +7369,13 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715589</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725196</v>
+        <v>920.1890921260458</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529682</v>
       </c>
       <c r="G41" t="n">
         <v>352.4579211424554</v>
@@ -7412,19 +7412,19 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.222010022407</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M41" t="n">
-        <v>1912.753914694331</v>
+        <v>2450.352956811728</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.532731753114</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O41" t="n">
-        <v>3339.497382082568</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P41" t="n">
         <v>3921.963255671154</v>
@@ -7448,13 +7448,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867705</v>
+        <v>582.2589880867706</v>
       </c>
       <c r="C43" t="n">
-        <v>582.2589880867705</v>
+        <v>582.2589880867706</v>
       </c>
       <c r="D43" t="n">
-        <v>582.2589880867705</v>
+        <v>467.9963045189256</v>
       </c>
       <c r="E43" t="n">
-        <v>470.1998503488681</v>
+        <v>355.9371667810232</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352786</v>
+        <v>244.9011751276035</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>113.0522943468132</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>113.0522943468132</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967277</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,34 +7585,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T43" t="n">
         <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715587</v>
+        <v>912.9921203715589</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725193</v>
+        <v>728.0534970725196</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529682</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H44" t="n">
         <v>90.72827659571333</v>
@@ -7646,28 +7646,28 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L44" t="n">
-        <v>1225.723700597307</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M44" t="n">
-        <v>1759.255605269231</v>
+        <v>2450.352956811728</v>
       </c>
       <c r="N44" t="n">
-        <v>2306.034422328014</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O44" t="n">
-        <v>3185.999072657468</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P44" t="n">
-        <v>3899.354160104414</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q44" t="n">
-        <v>4147.640521860097</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983638</v>
@@ -7682,7 +7682,7 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W44" t="n">
         <v>3154.906027777561</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402677</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702904</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506375</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L45" t="n">
-        <v>783.224962463303</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685619</v>
@@ -7755,13 +7755,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
         <v>1543.444207719153</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>725.6269796944455</v>
+        <v>582.25898808677</v>
       </c>
       <c r="C46" t="n">
-        <v>725.6269796944455</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961266005</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886981</v>
+        <v>337.1176232654514</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352785</v>
+        <v>226.0816316120318</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>226.0816316120318</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168367</v>
@@ -7810,7 +7810,7 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7825,31 +7825,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
         <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715589</v>
+        <v>912.9921203715584</v>
       </c>
       <c r="Y46" t="n">
-        <v>871.4214886801944</v>
+        <v>728.053497072519</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.50551572733623</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>281.5606805308011</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>75.88111353616799</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>201.3549853008792</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>23.80814351663639</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.28566532692543</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>104.3976710547477</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>39.5248359133011</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.8709611688426</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>27.35822683245271</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>191.9340854415076</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>27.35822683245271</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>189.5873810418256</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.35822683245271</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.8374702694335</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.14081246906049</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>157.4134720845679</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>24.11351676163074</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>2.725062540917361</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>68.10750358912705</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>152.1350798790572</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>84.45025312602147</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>150.9514371522698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>79.86678684997828</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>39.12662934499377</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.4197768217118</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>159.6457400831802</v>
       </c>
       <c r="V31" t="n">
-        <v>227.7650343011693</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>162.7471701436572</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>22.96929458461373</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>83.47147740118955</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>50.64002803512822</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.81425495943182</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>32.67471306332329</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>30.03526779903186</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.9343116915986</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997148.1876184227</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787486</v>
@@ -26326,34 +26326,34 @@
         <v>416935.8762313324</v>
       </c>
       <c r="G2" t="n">
-        <v>416935.8762313326</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
+        <v>416935.8762313325</v>
+      </c>
+      <c r="J2" t="n">
         <v>416935.8762313323</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="K2" t="n">
-        <v>416935.8762313325</v>
-      </c>
       <c r="L2" t="n">
-        <v>416935.8762313326</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>427598.4891507962</v>
+        <v>427598.4891507963</v>
       </c>
       <c r="N2" t="n">
-        <v>427598.4891507963</v>
+        <v>427598.4891507964</v>
       </c>
       <c r="O2" t="n">
-        <v>427598.4891507963</v>
+        <v>427598.4891507966</v>
       </c>
       <c r="P2" t="n">
-        <v>427598.4891507961</v>
+        <v>427598.4891507964</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394278</v>
+        <v>507203.1428394266</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417948</v>
+        <v>78665.28217418063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410736</v>
+        <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022144</v>
+        <v>18289.94367022173</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.908845555</v>
+        <v>223242.9088455553</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,22 +26424,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499376</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499379</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26448,16 +26448,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000353</v>
+        <v>53328.24410000355</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000353</v>
+        <v>53328.24410000352</v>
       </c>
       <c r="O4" t="n">
+        <v>53328.24410000352</v>
+      </c>
+      <c r="P4" t="n">
         <v>53328.24410000356</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53328.24410000353</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.6887113344</v>
+        <v>77204.68871133431</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376603.8112175683</v>
+        <v>-376603.8112175677</v>
       </c>
       <c r="C6" t="n">
-        <v>68458.06301342821</v>
+        <v>68458.06301342722</v>
       </c>
       <c r="D6" t="n">
-        <v>147123.3451876077</v>
+        <v>147123.3451876076</v>
       </c>
       <c r="E6" t="n">
-        <v>-431915.7796907817</v>
+        <v>-431982.9751810076</v>
       </c>
       <c r="F6" t="n">
-        <v>295461.634302625</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="G6" t="n">
-        <v>295461.6343026252</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="H6" t="n">
-        <v>295461.634302625</v>
+        <v>295394.4388123992</v>
       </c>
       <c r="I6" t="n">
-        <v>295461.6343026249</v>
+        <v>295394.4388123992</v>
       </c>
       <c r="J6" t="n">
-        <v>137632.2341615513</v>
+        <v>137565.0386713257</v>
       </c>
       <c r="K6" t="n">
-        <v>277171.6906324037</v>
+        <v>277104.4951421773</v>
       </c>
       <c r="L6" t="n">
-        <v>295461.6343026251</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="M6" t="n">
-        <v>159395.4040413809</v>
+        <v>159378.9828983906</v>
       </c>
       <c r="N6" t="n">
-        <v>283244.1952295561</v>
+        <v>283227.7740865659</v>
       </c>
       <c r="O6" t="n">
-        <v>283244.1952295559</v>
+        <v>283227.7740865661</v>
       </c>
       <c r="P6" t="n">
-        <v>283244.1952295558</v>
+        <v>283227.7740865658</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.75688445008894e-15</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688986</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687704</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688986</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818801</v>
+        <v>61.17508524818891</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687704</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685161</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687704</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668515</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687704</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685161</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>371.5768123820425</v>
       </c>
       <c r="G2" t="n">
-        <v>83.15840970235723</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208645</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866694</v>
+        <v>69.92680236866715</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>60.07551255067525</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>50.55432364845788</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255598</v>
+        <v>52.99928112255609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273907</v>
+        <v>38.36018782739082</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>207.3400105535717</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>73.57350610721323</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>136.7864838580471</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.439291313857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>112.3334579080675</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>157.2039896596291</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>303.4958447053166</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>116.7497573142986</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>63.85771859884851</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>88.08698034491988</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>35.49541628604581</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604504</v>
       </c>
       <c r="V38" t="n">
         <v>35.49541628604581</v>
@@ -30286,7 +30286,7 @@
         <v>35.49541628604581</v>
       </c>
       <c r="X38" t="n">
-        <v>35.4954162860451</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="Y38" t="n">
         <v>35.49541628604581</v>
@@ -30520,7 +30520,7 @@
         <v>35.49541628604581</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604493</v>
       </c>
       <c r="X41" t="n">
         <v>35.49541628604581</v>
@@ -30760,7 +30760,7 @@
         <v>35.49541628604581</v>
       </c>
       <c r="X44" t="n">
-        <v>35.4954162860451</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="Y44" t="n">
         <v>35.49541628604581</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392556</v>
+        <v>1.272637503392553</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161902</v>
+        <v>13.03339883161899</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954158</v>
+        <v>49.06335734954144</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035641</v>
+        <v>108.0135173035638</v>
       </c>
       <c r="K2" t="n">
-        <v>161.884262822171</v>
+        <v>161.8842628221706</v>
       </c>
       <c r="L2" t="n">
-        <v>200.831742816621</v>
+        <v>200.8317428166205</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175784</v>
+        <v>223.4640100175778</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240925</v>
+        <v>227.0798913240919</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497327</v>
+        <v>214.4251021497322</v>
       </c>
       <c r="P2" t="n">
-        <v>183.006863784729</v>
+        <v>183.0068637847285</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.430533194483</v>
+        <v>137.4305331944826</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248274</v>
+        <v>79.94231557248253</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855791</v>
+        <v>29.00022710855783</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100918</v>
+        <v>5.570970671100904</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714045</v>
+        <v>0.1018110002714042</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.680921094385933</v>
+        <v>0.6809210943859311</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674669</v>
+        <v>6.576264253674651</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986655</v>
+        <v>23.44399381986649</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933063</v>
+        <v>64.33211093933046</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631881</v>
+        <v>109.9538242631878</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665597</v>
+        <v>147.8464858665593</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380497</v>
+        <v>172.5298755380493</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648747</v>
+        <v>177.0962279648743</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313759</v>
+        <v>162.0084500313754</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674331</v>
+        <v>130.0260640674328</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915874</v>
+        <v>86.91898039915851</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248803</v>
+        <v>42.27683777248792</v>
       </c>
       <c r="S3" t="n">
-        <v>12.6478106786159</v>
+        <v>12.64781067861586</v>
       </c>
       <c r="T3" t="n">
-        <v>2.74458984973979</v>
+        <v>2.744589849739782</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012718</v>
+        <v>0.04479744042012707</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111286</v>
+        <v>0.5708613719111271</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173493</v>
+        <v>5.075476561173479</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801831</v>
+        <v>17.16735834801826</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411679</v>
+        <v>40.35989899411668</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840201</v>
+        <v>66.32371211840184</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667817</v>
+        <v>84.87151705667794</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148718</v>
+        <v>89.48511487148694</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890941</v>
+        <v>87.35735884890917</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522029</v>
+        <v>80.68866009522007</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823321</v>
+        <v>69.04308810823302</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430369</v>
+        <v>47.80185542430356</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065856</v>
+        <v>25.66800314065849</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760302</v>
+        <v>9.948556817760275</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711185</v>
+        <v>2.439134952711179</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333432</v>
+        <v>0.03113789301333424</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895157</v>
+        <v>96.06422794895127</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483552</v>
+        <v>265.9398243483548</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970842</v>
+        <v>382.7265423970837</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831381</v>
+        <v>442.6313102831375</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394857</v>
+        <v>435.0137521394851</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907914</v>
+        <v>365.1270719907908</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009421</v>
+        <v>273.5725762009416</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799382</v>
+        <v>127.4398339799378</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307278</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014078</v>
+        <v>236.5776223014074</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901447</v>
+        <v>380.1324513901443</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660313</v>
+        <v>496.1009053660309</v>
       </c>
       <c r="N3" t="n">
-        <v>327.3151964123425</v>
+        <v>525.0968902250945</v>
       </c>
       <c r="O3" t="n">
-        <v>413.274524863661</v>
+        <v>413.2745248636605</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930401</v>
+        <v>314.5144252930397</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489863</v>
+        <v>22.81831984930498</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251916</v>
+        <v>44.05422029251899</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169943</v>
+        <v>112.4615423169941</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333278</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
-        <v>131.489531228138</v>
+        <v>131.4895312281378</v>
       </c>
       <c r="O4" t="n">
-        <v>105.27378800926</v>
+        <v>105.2737880092597</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312669</v>
+        <v>66.32164737312651</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>538.5462718562796</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35422,16 +35422,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>531.8611444048555</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.353130222636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35887,7 +35887,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,10 +35896,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.072666295638</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36127,13 +36127,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36358,22 +36358,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q26" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>559.9877854470799</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37306,28 +37306,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>578.4459517435279</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>374.6652659725621</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37546,22 +37546,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>579.6600622453642</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>442.7283902452271</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37780,22 +37780,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>579.6600622453642</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>588.3493672611975</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>579.6600622453642</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>82.45066881165828</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795296</v>
